--- a/Lista 1/L1-Q2.xlsx
+++ b/Lista 1/L1-Q2.xlsx
@@ -1,71 +1,102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\João Duim\Documents\Eclass\5° Período\Programação Linear e Inteira\Listas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilana\Documents\RAPHAEL\FGV\2022\2022.1\Programação Linear e Inteira\Listas\Lista 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDA5F0E4-225F-4919-94DC-D5C9430B162F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{FFFF59C7-0628-4398-91B9-D08743D7E429}"/>
   </bookViews>
   <sheets>
-    <sheet name="Questão 2" sheetId="1" r:id="rId1"/>
-    <sheet name="Relatório de Sensibilidade" sheetId="2" r:id="rId2"/>
+    <sheet name="Relatório de Sensibilidade 1" sheetId="2" r:id="rId1"/>
+    <sheet name="Relatório de Sensibilidade 2" sheetId="3" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'Questão 2'!$A$3:$A$4</definedName>
-    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Questão 2'!$C$3:$C$5</definedName>
-    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'Questão 2'!$E$3</definedName>
-    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">Planilha1!$B$5:$C$5</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">Planilha1!$I$13:$I$15</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">Planilha1!$I$16:$I$17</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">Planilha1!$C$1</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">Planilha1!$K$13:$K$15</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">Planilha1!$K$16:$K$17</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
+  <si>
+    <t>Max z = 2x1 + x2</t>
+  </si>
+  <si>
+    <t>F. O.</t>
+  </si>
   <si>
     <t>Variáveis</t>
   </si>
   <si>
-    <t>Restrições:</t>
-  </si>
-  <si>
-    <t>Função objetivo:</t>
+    <t>Parâmetros</t>
+  </si>
+  <si>
+    <t>Restrições</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>Objetivo</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
   </si>
   <si>
     <t>Microsoft Excel 16.0 Relatório de Sensibilidade</t>
@@ -74,7 +105,7 @@
     <t>Planilha: [Pasta1]Planilha1</t>
   </si>
   <si>
-    <t>Relatório Criado: 24/02/2022 16:45:46</t>
+    <t>Relatório Criado: 24/02/2022 16:57:03</t>
   </si>
   <si>
     <t>Células Variáveis</t>
@@ -98,9 +129,6 @@
     <t>Custo</t>
   </si>
   <si>
-    <t>Objetivo</t>
-  </si>
-  <si>
     <t>Coeficiente</t>
   </si>
   <si>
@@ -113,9 +141,6 @@
     <t>Reduzir</t>
   </si>
   <si>
-    <t>Restrições</t>
-  </si>
-  <si>
     <t>Sombra</t>
   </si>
   <si>
@@ -128,25 +153,46 @@
     <t>Lateral R.H.</t>
   </si>
   <si>
-    <t>$A$3</t>
-  </si>
-  <si>
-    <t>$A$4</t>
-  </si>
-  <si>
-    <t>$C$3</t>
-  </si>
-  <si>
-    <t>$C$4</t>
+    <t>$B$5</t>
+  </si>
+  <si>
+    <t>Variáveis x1</t>
   </si>
   <si>
     <t>$C$5</t>
+  </si>
+  <si>
+    <t>Variáveis x2</t>
+  </si>
+  <si>
+    <t>$I$13</t>
+  </si>
+  <si>
+    <t>$I$14</t>
+  </si>
+  <si>
+    <t>$I$15</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>Planilha: [L1-Q2b.xlsx]Planilha1</t>
+  </si>
+  <si>
+    <t>Relatório Criado: 24/02/2022 17:19:41</t>
+  </si>
+  <si>
+    <t>$I$16</t>
+  </si>
+  <si>
+    <t>$I$17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -238,6 +284,7 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -247,7 +294,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -282,7 +328,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -294,7 +340,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -341,6 +387,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -376,6 +439,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -527,59 +607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <f>6-12*A3-3*A4</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
-        <f>2*A3+A4</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <f>7+3*A3-A4</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <f>10-A4</f>
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C54D73-878D-4265-9571-E7035C9C6150}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -587,236 +615,716 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
+      <c r="A1" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
+      <c r="A2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
+      <c r="A3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>17</v>
+      <c r="E8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
         <v>-2</v>
       </c>
-      <c r="F9" s="2">
-        <v>2</v>
-      </c>
-      <c r="G9" s="2">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3">
         <v>1E+30</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="4">
         <v>1E+30</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3">
+        <v>6</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F15" s="3">
+        <v>6</v>
+      </c>
+      <c r="G15" s="3">
+        <v>15.000000000000004</v>
+      </c>
+      <c r="H15" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>7</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1E+30</v>
+      </c>
+      <c r="H16" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>10</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H17" s="4">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCB0AB4-7CEE-485A-938A-1F32DC11E47A}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="F8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
+      <c r="H14" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3">
+        <v>6</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F15" s="3">
+        <v>6</v>
+      </c>
+      <c r="G15" s="3">
+        <v>15.000000000000004</v>
+      </c>
+      <c r="H15" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
         <v>7</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="G16" s="3">
+        <v>1E+30</v>
+      </c>
+      <c r="H16" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>10</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="G17" s="3">
+        <v>1E+30</v>
+      </c>
+      <c r="H17" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>2</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1E+30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E89047-0F1E-471C-BBF2-7BA108B6B5D0}">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>-0.33333333333333331</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <f>SUMPRODUCT(B5:C5,B9:C9)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="2">
-        <v>15.000000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="2" t="s">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="D16" s="2">
-        <v>5</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>5</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1E+30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="3" t="s">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <f>SUMPRODUCT($B$5:$C$5,B13:C13)</f>
+        <v>6</v>
+      </c>
+      <c r="J13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>-3</v>
+      </c>
+      <c r="C14">
         <v>1</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D14" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ref="I14:I15" si="0">SUMPRODUCT($B$5:$C$5,B14:C14)</f>
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="3">
-        <v>1E+30</v>
+      <c r="K14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <f>SUMPRODUCT($B$5:$C$5,B15:C15)</f>
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f>SUMPRODUCT(B16:C16,B5:C5)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f>SUMPRODUCT(B17:C17,B5:C5)</f>
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
